--- a/artfynd/A 33668-2023.xlsx
+++ b/artfynd/A 33668-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY20"/>
+  <dimension ref="A1:AY48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2876,6 +2876,2870 @@
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112475089</v>
+      </c>
+      <c r="B21" t="n">
+        <v>78726</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>6462</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Stuplav</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Nephroma bellum</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>537388</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7202926</v>
+      </c>
+      <c r="S21" t="n">
+        <v>25</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112475078</v>
+      </c>
+      <c r="B22" t="n">
+        <v>89539</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>537445</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7202925</v>
+      </c>
+      <c r="S22" t="n">
+        <v>25</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112475083</v>
+      </c>
+      <c r="B23" t="n">
+        <v>78726</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6462</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Stuplav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Nephroma bellum</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>537429</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7202929</v>
+      </c>
+      <c r="S23" t="n">
+        <v>25</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112475080</v>
+      </c>
+      <c r="B24" t="n">
+        <v>89820</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>658</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>537442</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7202933</v>
+      </c>
+      <c r="S24" t="n">
+        <v>25</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112475085</v>
+      </c>
+      <c r="B25" t="n">
+        <v>78700</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2081</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>537433</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7202938</v>
+      </c>
+      <c r="S25" t="n">
+        <v>25</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112475050</v>
+      </c>
+      <c r="B26" t="n">
+        <v>78733</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>6464</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Luddlav</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Nephroma resupinatum</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>537321</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7202918</v>
+      </c>
+      <c r="S26" t="n">
+        <v>25</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112475093</v>
+      </c>
+      <c r="B27" t="n">
+        <v>78733</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6464</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Luddlav</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Nephroma resupinatum</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>537326</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7202953</v>
+      </c>
+      <c r="S27" t="n">
+        <v>25</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112475084</v>
+      </c>
+      <c r="B28" t="n">
+        <v>78657</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>229497</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Korallblylav</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Parmeliella triptophylla</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Ach.) Müll.Arg.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>537413</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7202938</v>
+      </c>
+      <c r="S28" t="n">
+        <v>25</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112475088</v>
+      </c>
+      <c r="B29" t="n">
+        <v>78732</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>6463</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Bårdlav</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Nephroma parile</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>537385</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7202927</v>
+      </c>
+      <c r="S29" t="n">
+        <v>25</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112475098</v>
+      </c>
+      <c r="B30" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>537312</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7202962</v>
+      </c>
+      <c r="S30" t="n">
+        <v>25</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112475082</v>
+      </c>
+      <c r="B31" t="n">
+        <v>78700</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2081</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>537440</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7202932</v>
+      </c>
+      <c r="S31" t="n">
+        <v>25</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112475072</v>
+      </c>
+      <c r="B32" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>537484</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7202899</v>
+      </c>
+      <c r="S32" t="n">
+        <v>25</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112475091</v>
+      </c>
+      <c r="B33" t="n">
+        <v>89539</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>537344</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7202977</v>
+      </c>
+      <c r="S33" t="n">
+        <v>25</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112475100</v>
+      </c>
+      <c r="B34" t="n">
+        <v>78732</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>6463</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Bårdlav</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Nephroma parile</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>537300</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7202986</v>
+      </c>
+      <c r="S34" t="n">
+        <v>25</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112475075</v>
+      </c>
+      <c r="B35" t="n">
+        <v>89557</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>537476</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7202903</v>
+      </c>
+      <c r="S35" t="n">
+        <v>25</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112475071</v>
+      </c>
+      <c r="B36" t="n">
+        <v>89820</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>658</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>537493</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7202899</v>
+      </c>
+      <c r="S36" t="n">
+        <v>25</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112475092</v>
+      </c>
+      <c r="B37" t="n">
+        <v>78633</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6456</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Skinnlav</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Leptogium saturninum</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>537324</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7202953</v>
+      </c>
+      <c r="S37" t="n">
+        <v>25</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112475052</v>
+      </c>
+      <c r="B38" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>537417</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7202963</v>
+      </c>
+      <c r="S38" t="n">
+        <v>25</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112475069</v>
+      </c>
+      <c r="B39" t="n">
+        <v>90221</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>537513</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7202902</v>
+      </c>
+      <c r="S39" t="n">
+        <v>25</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112475086</v>
+      </c>
+      <c r="B40" t="n">
+        <v>73816</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>310</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Nordlig nållav</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Chaenotheca laevigata</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Nádv.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>537413</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7202940</v>
+      </c>
+      <c r="S40" t="n">
+        <v>25</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>112475087</v>
+      </c>
+      <c r="B41" t="n">
+        <v>78744</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>229504</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Grynig filtlav</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Peltigera collina</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Ach.) Schrad.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>537418</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7202936</v>
+      </c>
+      <c r="S41" t="n">
+        <v>25</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>112475051</v>
+      </c>
+      <c r="B42" t="n">
+        <v>89485</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>112</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Stjärntagging</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Asterodon ferruginosus</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>537404</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7202961</v>
+      </c>
+      <c r="S42" t="n">
+        <v>25</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>112475090</v>
+      </c>
+      <c r="B43" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>537381</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7202932</v>
+      </c>
+      <c r="S43" t="n">
+        <v>25</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>112475076</v>
+      </c>
+      <c r="B44" t="n">
+        <v>56446</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>537441</v>
+      </c>
+      <c r="R44" t="n">
+        <v>7202927</v>
+      </c>
+      <c r="S44" t="n">
+        <v>25</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>112475073</v>
+      </c>
+      <c r="B45" t="n">
+        <v>89485</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>112</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Stjärntagging</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Asterodon ferruginosus</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>537476</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7202907</v>
+      </c>
+      <c r="S45" t="n">
+        <v>25</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>112475094</v>
+      </c>
+      <c r="B46" t="n">
+        <v>78633</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>6456</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Skinnlav</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Leptogium saturninum</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>537325</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7202959</v>
+      </c>
+      <c r="S46" t="n">
+        <v>25</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>112475070</v>
+      </c>
+      <c r="B47" t="n">
+        <v>89979</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>537489</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7202918</v>
+      </c>
+      <c r="S47" t="n">
+        <v>25</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>112475099</v>
+      </c>
+      <c r="B48" t="n">
+        <v>73820</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>537306</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7202985</v>
+      </c>
+      <c r="S48" t="n">
+        <v>25</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 33668-2023.xlsx
+++ b/artfynd/A 33668-2023.xlsx
@@ -2878,10 +2878,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112475089</v>
+        <v>112475075</v>
       </c>
       <c r="B21" t="n">
-        <v>78726</v>
+        <v>89571</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2890,25 +2890,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2918,10 +2918,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>537388</v>
+        <v>537476</v>
       </c>
       <c r="R21" t="n">
-        <v>7202926</v>
+        <v>7202903</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2983,7 +2983,7 @@
         <v>112475078</v>
       </c>
       <c r="B22" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112475083</v>
+        <v>112475070</v>
       </c>
       <c r="B23" t="n">
-        <v>78726</v>
+        <v>89993</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3094,25 +3094,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6462</v>
+        <v>1209</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3122,10 +3122,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>537429</v>
+        <v>537489</v>
       </c>
       <c r="R23" t="n">
-        <v>7202929</v>
+        <v>7202918</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3184,10 +3184,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112475080</v>
+        <v>112475085</v>
       </c>
       <c r="B24" t="n">
-        <v>89820</v>
+        <v>78714</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3200,21 +3200,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>658</v>
+        <v>2081</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3224,10 +3224,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>537442</v>
+        <v>537433</v>
       </c>
       <c r="R24" t="n">
-        <v>7202933</v>
+        <v>7202938</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112475085</v>
+        <v>112475080</v>
       </c>
       <c r="B25" t="n">
-        <v>78700</v>
+        <v>89834</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3302,21 +3302,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2081</v>
+        <v>658</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3326,10 +3326,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>537433</v>
+        <v>537442</v>
       </c>
       <c r="R25" t="n">
-        <v>7202938</v>
+        <v>7202933</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112475050</v>
+        <v>112475091</v>
       </c>
       <c r="B26" t="n">
-        <v>78733</v>
+        <v>89553</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3400,25 +3400,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6464</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3428,10 +3428,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>537321</v>
+        <v>537344</v>
       </c>
       <c r="R26" t="n">
-        <v>7202918</v>
+        <v>7202977</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112475093</v>
+        <v>112475050</v>
       </c>
       <c r="B27" t="n">
-        <v>78733</v>
+        <v>78747</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3530,10 +3530,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>537326</v>
+        <v>537321</v>
       </c>
       <c r="R27" t="n">
-        <v>7202953</v>
+        <v>7202918</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112475084</v>
+        <v>112475086</v>
       </c>
       <c r="B28" t="n">
-        <v>78657</v>
+        <v>73830</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3604,25 +3604,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>229497</v>
+        <v>310</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Nordlig nållav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Chaenotheca laevigata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3635,7 +3635,7 @@
         <v>537413</v>
       </c>
       <c r="R28" t="n">
-        <v>7202938</v>
+        <v>7202940</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112475088</v>
+        <v>112475083</v>
       </c>
       <c r="B29" t="n">
-        <v>78732</v>
+        <v>78740</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3710,21 +3710,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6463</v>
+        <v>6462</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3734,10 +3734,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>537385</v>
+        <v>537429</v>
       </c>
       <c r="R29" t="n">
-        <v>7202927</v>
+        <v>7202929</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112475098</v>
+        <v>112475084</v>
       </c>
       <c r="B30" t="n">
-        <v>78699</v>
+        <v>78671</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3808,25 +3808,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3836,10 +3836,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>537312</v>
+        <v>537413</v>
       </c>
       <c r="R30" t="n">
-        <v>7202962</v>
+        <v>7202938</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112475082</v>
+        <v>112475071</v>
       </c>
       <c r="B31" t="n">
-        <v>78700</v>
+        <v>89834</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3914,21 +3914,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2081</v>
+        <v>658</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3938,10 +3938,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>537440</v>
+        <v>537493</v>
       </c>
       <c r="R31" t="n">
-        <v>7202932</v>
+        <v>7202899</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112475072</v>
+        <v>112475099</v>
       </c>
       <c r="B32" t="n">
-        <v>78699</v>
+        <v>73834</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4016,21 +4016,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4040,10 +4040,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>537484</v>
+        <v>537306</v>
       </c>
       <c r="R32" t="n">
-        <v>7202899</v>
+        <v>7202985</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112475091</v>
+        <v>112475069</v>
       </c>
       <c r="B33" t="n">
-        <v>89539</v>
+        <v>90235</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4114,25 +4114,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4142,10 +4142,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>537344</v>
+        <v>537513</v>
       </c>
       <c r="R33" t="n">
-        <v>7202977</v>
+        <v>7202902</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112475100</v>
+        <v>112475094</v>
       </c>
       <c r="B34" t="n">
-        <v>78732</v>
+        <v>78647</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4220,21 +4220,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6463</v>
+        <v>6456</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4244,10 +4244,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>537300</v>
+        <v>537325</v>
       </c>
       <c r="R34" t="n">
-        <v>7202986</v>
+        <v>7202959</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4306,10 +4306,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112475075</v>
+        <v>112475089</v>
       </c>
       <c r="B35" t="n">
-        <v>89557</v>
+        <v>78740</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4318,25 +4318,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>6462</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4346,10 +4346,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>537476</v>
+        <v>537388</v>
       </c>
       <c r="R35" t="n">
-        <v>7202903</v>
+        <v>7202926</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112475071</v>
+        <v>112475051</v>
       </c>
       <c r="B36" t="n">
-        <v>89820</v>
+        <v>89499</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4424,21 +4424,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>658</v>
+        <v>112</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>537493</v>
+        <v>537404</v>
       </c>
       <c r="R36" t="n">
-        <v>7202899</v>
+        <v>7202961</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4510,10 +4510,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112475092</v>
+        <v>112475098</v>
       </c>
       <c r="B37" t="n">
-        <v>78633</v>
+        <v>78713</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4522,25 +4522,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4550,10 +4550,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>537324</v>
+        <v>537312</v>
       </c>
       <c r="R37" t="n">
-        <v>7202953</v>
+        <v>7202962</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4615,7 +4615,7 @@
         <v>112475052</v>
       </c>
       <c r="B38" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4714,10 +4714,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112475069</v>
+        <v>112475092</v>
       </c>
       <c r="B39" t="n">
-        <v>90221</v>
+        <v>78647</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4730,21 +4730,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3298</v>
+        <v>6456</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4754,10 +4754,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>537513</v>
+        <v>537324</v>
       </c>
       <c r="R39" t="n">
-        <v>7202902</v>
+        <v>7202953</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4816,10 +4816,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112475086</v>
+        <v>112475100</v>
       </c>
       <c r="B40" t="n">
-        <v>73816</v>
+        <v>78746</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4828,25 +4828,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>310</v>
+        <v>6463</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Nordlig nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Chaenotheca laevigata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4856,10 +4856,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>537413</v>
+        <v>537300</v>
       </c>
       <c r="R40" t="n">
-        <v>7202940</v>
+        <v>7202986</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112475087</v>
+        <v>112475072</v>
       </c>
       <c r="B41" t="n">
-        <v>78744</v>
+        <v>78713</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4934,21 +4934,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>229504</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Grynig filtlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Peltigera collina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Schrad.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4958,10 +4958,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>537418</v>
+        <v>537484</v>
       </c>
       <c r="R41" t="n">
-        <v>7202936</v>
+        <v>7202899</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5020,10 +5020,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112475051</v>
+        <v>112475076</v>
       </c>
       <c r="B42" t="n">
-        <v>89485</v>
+        <v>56446</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5036,34 +5036,42 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>112</v>
+        <v>100049</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Pat.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Handsktumhällan, saxnäs, Ås lm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>537404</v>
+        <v>537441</v>
       </c>
       <c r="R42" t="n">
-        <v>7202961</v>
+        <v>7202927</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5122,10 +5130,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112475090</v>
+        <v>112475082</v>
       </c>
       <c r="B43" t="n">
-        <v>78699</v>
+        <v>78714</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5138,21 +5146,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5162,7 +5170,7 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>537381</v>
+        <v>537440</v>
       </c>
       <c r="R43" t="n">
         <v>7202932</v>
@@ -5224,10 +5232,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112475076</v>
+        <v>112475073</v>
       </c>
       <c r="B44" t="n">
-        <v>56446</v>
+        <v>89499</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5240,42 +5248,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100049</v>
+        <v>112</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Handsktumhällan, saxnäs, Ås lm</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>537441</v>
+        <v>537476</v>
       </c>
       <c r="R44" t="n">
-        <v>7202927</v>
+        <v>7202907</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5334,10 +5334,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112475073</v>
+        <v>112475087</v>
       </c>
       <c r="B45" t="n">
-        <v>89485</v>
+        <v>78758</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5350,21 +5350,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>112</v>
+        <v>229504</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Grynig filtlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Peltigera collina</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Ach.) Schrad.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>537476</v>
+        <v>537418</v>
       </c>
       <c r="R45" t="n">
-        <v>7202907</v>
+        <v>7202936</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5436,10 +5436,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112475094</v>
+        <v>112475090</v>
       </c>
       <c r="B46" t="n">
-        <v>78633</v>
+        <v>78713</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5448,25 +5448,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5476,10 +5476,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>537325</v>
+        <v>537381</v>
       </c>
       <c r="R46" t="n">
-        <v>7202959</v>
+        <v>7202932</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5538,10 +5538,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112475070</v>
+        <v>112475088</v>
       </c>
       <c r="B47" t="n">
-        <v>89979</v>
+        <v>78746</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5550,25 +5550,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1209</v>
+        <v>6463</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5578,10 +5578,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>537489</v>
+        <v>537385</v>
       </c>
       <c r="R47" t="n">
-        <v>7202918</v>
+        <v>7202927</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5640,10 +5640,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112475099</v>
+        <v>112475093</v>
       </c>
       <c r="B48" t="n">
-        <v>73820</v>
+        <v>78747</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5652,25 +5652,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6440</v>
+        <v>6464</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5680,10 +5680,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>537306</v>
+        <v>537326</v>
       </c>
       <c r="R48" t="n">
-        <v>7202985</v>
+        <v>7202953</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>

--- a/artfynd/A 33668-2023.xlsx
+++ b/artfynd/A 33668-2023.xlsx
@@ -2980,10 +2980,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112475078</v>
+        <v>112475070</v>
       </c>
       <c r="B22" t="n">
-        <v>89553</v>
+        <v>89993</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2992,25 +2992,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3020,10 +3020,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>537445</v>
+        <v>537489</v>
       </c>
       <c r="R22" t="n">
-        <v>7202925</v>
+        <v>7202918</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112475070</v>
+        <v>112475085</v>
       </c>
       <c r="B23" t="n">
-        <v>89993</v>
+        <v>78714</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3094,25 +3094,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1209</v>
+        <v>2081</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3122,10 +3122,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>537489</v>
+        <v>537433</v>
       </c>
       <c r="R23" t="n">
-        <v>7202918</v>
+        <v>7202938</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3184,10 +3184,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112475085</v>
+        <v>112475080</v>
       </c>
       <c r="B24" t="n">
-        <v>78714</v>
+        <v>89834</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3200,21 +3200,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2081</v>
+        <v>658</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3224,10 +3224,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>537433</v>
+        <v>537442</v>
       </c>
       <c r="R24" t="n">
-        <v>7202938</v>
+        <v>7202933</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112475080</v>
+        <v>112475078</v>
       </c>
       <c r="B25" t="n">
-        <v>89834</v>
+        <v>89553</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3302,21 +3302,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3326,10 +3326,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>537442</v>
+        <v>537445</v>
       </c>
       <c r="R25" t="n">
-        <v>7202933</v>
+        <v>7202925</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112475099</v>
+        <v>112475069</v>
       </c>
       <c r="B32" t="n">
-        <v>73834</v>
+        <v>90235</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4012,25 +4012,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6440</v>
+        <v>3298</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4040,10 +4040,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>537306</v>
+        <v>537513</v>
       </c>
       <c r="R32" t="n">
-        <v>7202985</v>
+        <v>7202902</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112475069</v>
+        <v>112475099</v>
       </c>
       <c r="B33" t="n">
-        <v>90235</v>
+        <v>73834</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4114,25 +4114,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3298</v>
+        <v>6440</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4142,10 +4142,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>537513</v>
+        <v>537306</v>
       </c>
       <c r="R33" t="n">
-        <v>7202902</v>
+        <v>7202985</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>

--- a/artfynd/A 33668-2023.xlsx
+++ b/artfynd/A 33668-2023.xlsx
@@ -2878,10 +2878,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112475075</v>
+        <v>112475050</v>
       </c>
       <c r="B21" t="n">
-        <v>89571</v>
+        <v>78747</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2890,25 +2890,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>6464</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2918,10 +2918,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>537476</v>
+        <v>537321</v>
       </c>
       <c r="R21" t="n">
-        <v>7202903</v>
+        <v>7202918</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2980,10 +2980,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112475070</v>
+        <v>112475076</v>
       </c>
       <c r="B22" t="n">
-        <v>89993</v>
+        <v>56446</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2992,38 +2992,46 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1209</v>
+        <v>100049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Handsktumhällan, saxnäs, Ås lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>537489</v>
+        <v>537441</v>
       </c>
       <c r="R22" t="n">
-        <v>7202918</v>
+        <v>7202927</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3082,10 +3090,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112475085</v>
+        <v>112475084</v>
       </c>
       <c r="B23" t="n">
-        <v>78714</v>
+        <v>78671</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3094,25 +3102,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2081</v>
+        <v>229497</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3122,7 +3130,7 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>537433</v>
+        <v>537413</v>
       </c>
       <c r="R23" t="n">
         <v>7202938</v>
@@ -3184,10 +3192,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112475080</v>
+        <v>112475070</v>
       </c>
       <c r="B24" t="n">
-        <v>89834</v>
+        <v>89993</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3196,25 +3204,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3224,10 +3232,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>537442</v>
+        <v>537489</v>
       </c>
       <c r="R24" t="n">
-        <v>7202933</v>
+        <v>7202918</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3286,10 +3294,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112475078</v>
+        <v>112475090</v>
       </c>
       <c r="B25" t="n">
-        <v>89553</v>
+        <v>78713</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3302,21 +3310,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3326,10 +3334,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>537445</v>
+        <v>537381</v>
       </c>
       <c r="R25" t="n">
-        <v>7202925</v>
+        <v>7202932</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3490,10 +3498,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112475050</v>
+        <v>112475080</v>
       </c>
       <c r="B27" t="n">
-        <v>78747</v>
+        <v>89834</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3502,25 +3510,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6464</v>
+        <v>658</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3530,10 +3538,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>537321</v>
+        <v>537442</v>
       </c>
       <c r="R27" t="n">
-        <v>7202918</v>
+        <v>7202933</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3592,10 +3600,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112475086</v>
+        <v>112475085</v>
       </c>
       <c r="B28" t="n">
-        <v>73830</v>
+        <v>78714</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3608,21 +3616,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>310</v>
+        <v>2081</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nordlig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chaenotheca laevigata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3632,10 +3640,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>537413</v>
+        <v>537433</v>
       </c>
       <c r="R28" t="n">
-        <v>7202940</v>
+        <v>7202938</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3694,10 +3702,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112475083</v>
+        <v>112475072</v>
       </c>
       <c r="B29" t="n">
-        <v>78740</v>
+        <v>78713</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3706,25 +3714,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3734,10 +3742,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>537429</v>
+        <v>537484</v>
       </c>
       <c r="R29" t="n">
-        <v>7202929</v>
+        <v>7202899</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3796,10 +3804,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112475084</v>
+        <v>112475051</v>
       </c>
       <c r="B30" t="n">
-        <v>78671</v>
+        <v>89499</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3808,25 +3816,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>229497</v>
+        <v>112</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3836,10 +3844,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>537413</v>
+        <v>537404</v>
       </c>
       <c r="R30" t="n">
-        <v>7202938</v>
+        <v>7202961</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3898,10 +3906,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112475071</v>
+        <v>112475099</v>
       </c>
       <c r="B31" t="n">
-        <v>89834</v>
+        <v>73834</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3914,21 +3922,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>658</v>
+        <v>6440</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3938,10 +3946,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>537493</v>
+        <v>537306</v>
       </c>
       <c r="R31" t="n">
-        <v>7202899</v>
+        <v>7202985</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4000,10 +4008,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112475069</v>
+        <v>112475087</v>
       </c>
       <c r="B32" t="n">
-        <v>90235</v>
+        <v>78758</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4012,25 +4020,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3298</v>
+        <v>229504</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Grynig filtlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Peltigera collina</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Schrad.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4040,10 +4048,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>537513</v>
+        <v>537418</v>
       </c>
       <c r="R32" t="n">
-        <v>7202902</v>
+        <v>7202936</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4102,10 +4110,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112475099</v>
+        <v>112475071</v>
       </c>
       <c r="B33" t="n">
-        <v>73834</v>
+        <v>89834</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4118,21 +4126,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6440</v>
+        <v>658</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4142,10 +4150,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>537306</v>
+        <v>537493</v>
       </c>
       <c r="R33" t="n">
-        <v>7202985</v>
+        <v>7202899</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4306,10 +4314,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112475089</v>
+        <v>112475078</v>
       </c>
       <c r="B35" t="n">
-        <v>78740</v>
+        <v>89553</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4318,25 +4326,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4346,10 +4354,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>537388</v>
+        <v>537445</v>
       </c>
       <c r="R35" t="n">
-        <v>7202926</v>
+        <v>7202925</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4408,10 +4416,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112475051</v>
+        <v>112475089</v>
       </c>
       <c r="B36" t="n">
-        <v>89499</v>
+        <v>78740</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4420,25 +4428,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>112</v>
+        <v>6462</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4448,10 +4456,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>537404</v>
+        <v>537388</v>
       </c>
       <c r="R36" t="n">
-        <v>7202961</v>
+        <v>7202926</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4510,7 +4518,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112475098</v>
+        <v>112475052</v>
       </c>
       <c r="B37" t="n">
         <v>78713</v>
@@ -4550,10 +4558,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>537312</v>
+        <v>537417</v>
       </c>
       <c r="R37" t="n">
-        <v>7202962</v>
+        <v>7202963</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4612,7 +4620,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112475052</v>
+        <v>112475098</v>
       </c>
       <c r="B38" t="n">
         <v>78713</v>
@@ -4652,10 +4660,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>537417</v>
+        <v>537312</v>
       </c>
       <c r="R38" t="n">
-        <v>7202963</v>
+        <v>7202962</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4816,10 +4824,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112475100</v>
+        <v>112475073</v>
       </c>
       <c r="B40" t="n">
-        <v>78746</v>
+        <v>89499</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4828,25 +4836,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6463</v>
+        <v>112</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4856,10 +4864,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>537300</v>
+        <v>537476</v>
       </c>
       <c r="R40" t="n">
-        <v>7202986</v>
+        <v>7202907</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -4918,10 +4926,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112475072</v>
+        <v>112475083</v>
       </c>
       <c r="B41" t="n">
-        <v>78713</v>
+        <v>78740</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4930,25 +4938,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4958,10 +4966,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>537484</v>
+        <v>537429</v>
       </c>
       <c r="R41" t="n">
-        <v>7202899</v>
+        <v>7202929</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5020,10 +5028,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112475076</v>
+        <v>112475093</v>
       </c>
       <c r="B42" t="n">
-        <v>56446</v>
+        <v>78747</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5032,46 +5040,38 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100049</v>
+        <v>6464</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Handsktumhällan, saxnäs, Ås lm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>537441</v>
+        <v>537326</v>
       </c>
       <c r="R42" t="n">
-        <v>7202927</v>
+        <v>7202953</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5130,10 +5130,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112475082</v>
+        <v>112475100</v>
       </c>
       <c r="B43" t="n">
-        <v>78714</v>
+        <v>78746</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5142,25 +5142,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2081</v>
+        <v>6463</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5170,10 +5170,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>537440</v>
+        <v>537300</v>
       </c>
       <c r="R43" t="n">
-        <v>7202932</v>
+        <v>7202986</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5232,10 +5232,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112475073</v>
+        <v>112475088</v>
       </c>
       <c r="B44" t="n">
-        <v>89499</v>
+        <v>78746</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5244,25 +5244,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>112</v>
+        <v>6463</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>537476</v>
+        <v>537385</v>
       </c>
       <c r="R44" t="n">
-        <v>7202907</v>
+        <v>7202927</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5334,10 +5334,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112475087</v>
+        <v>112475069</v>
       </c>
       <c r="B45" t="n">
-        <v>78758</v>
+        <v>90235</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5346,25 +5346,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>229504</v>
+        <v>3298</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Grynig filtlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Peltigera collina</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Schrad.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>537418</v>
+        <v>537513</v>
       </c>
       <c r="R45" t="n">
-        <v>7202936</v>
+        <v>7202902</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5436,10 +5436,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112475090</v>
+        <v>112475082</v>
       </c>
       <c r="B46" t="n">
-        <v>78713</v>
+        <v>78714</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5452,21 +5452,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>537381</v>
+        <v>537440</v>
       </c>
       <c r="R46" t="n">
         <v>7202932</v>
@@ -5538,10 +5538,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112475088</v>
+        <v>112475086</v>
       </c>
       <c r="B47" t="n">
-        <v>78746</v>
+        <v>73830</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5550,25 +5550,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6463</v>
+        <v>310</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Nordlig nållav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Chaenotheca laevigata</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5578,10 +5578,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>537385</v>
+        <v>537413</v>
       </c>
       <c r="R47" t="n">
-        <v>7202927</v>
+        <v>7202940</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5640,10 +5640,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112475093</v>
+        <v>112475075</v>
       </c>
       <c r="B48" t="n">
-        <v>78747</v>
+        <v>89571</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5652,25 +5652,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6464</v>
+        <v>5432</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5680,10 +5680,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>537326</v>
+        <v>537476</v>
       </c>
       <c r="R48" t="n">
-        <v>7202953</v>
+        <v>7202903</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
